--- a/Calificaciones20242.xlsx
+++ b/Calificaciones20242.xlsx
@@ -7521,7 +7521,7 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -7610,7 +7610,7 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -7652,7 +7652,7 @@
         <v>9</v>
       </c>
       <c r="X5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -7699,7 +7699,7 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -7788,7 +7788,7 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>9</v>
@@ -7830,7 +7830,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -7877,7 +7877,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -7919,7 +7919,7 @@
         <v>10</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8">
         <v>9</v>
@@ -7966,7 +7966,7 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -8055,7 +8055,7 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -8144,7 +8144,7 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -8186,7 +8186,7 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>9</v>
@@ -8233,7 +8233,7 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -8275,7 +8275,7 @@
         <v>8</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -8322,7 +8322,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -8411,7 +8411,7 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -8500,7 +8500,7 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -8589,7 +8589,7 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -8631,7 +8631,7 @@
         <v>10</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -8678,7 +8678,7 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -8720,7 +8720,7 @@
         <v>10</v>
       </c>
       <c r="X17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y17">
         <v>9</v>
@@ -8767,7 +8767,7 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -8856,7 +8856,7 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -8945,7 +8945,7 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -9034,7 +9034,7 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -9123,7 +9123,7 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -9212,7 +9212,7 @@
         <v>6</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -9254,7 +9254,7 @@
         <v>8</v>
       </c>
       <c r="X23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y23">
         <v>8</v>
@@ -9301,7 +9301,7 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -9343,7 +9343,7 @@
         <v>10</v>
       </c>
       <c r="X24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y24">
         <v>9</v>
@@ -9390,7 +9390,7 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -9479,7 +9479,7 @@
         <v>9</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -9568,7 +9568,7 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -9610,7 +9610,7 @@
         <v>9</v>
       </c>
       <c r="X27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y27">
         <v>9</v>
@@ -9657,7 +9657,7 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -9746,7 +9746,7 @@
         <v>7</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -9788,7 +9788,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>7</v>
@@ -9835,7 +9835,7 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -9877,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>5</v>
@@ -9924,7 +9924,7 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -9966,7 +9966,7 @@
         <v>9</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y31">
         <v>9</v>
@@ -10013,7 +10013,7 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -10055,7 +10055,7 @@
         <v>10</v>
       </c>
       <c r="X32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y32">
         <v>9</v>
@@ -10102,7 +10102,7 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -10191,7 +10191,7 @@
         <v>9</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -10233,7 +10233,7 @@
         <v>9</v>
       </c>
       <c r="X34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y34">
         <v>8</v>
@@ -10280,7 +10280,7 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -10369,7 +10369,7 @@
         <v>9</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -10411,7 +10411,7 @@
         <v>10</v>
       </c>
       <c r="X36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y36">
         <v>9</v>
@@ -10458,7 +10458,7 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -10547,7 +10547,7 @@
         <v>5</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -10589,7 +10589,7 @@
         <v>5</v>
       </c>
       <c r="X38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y38">
         <v>5</v>
@@ -10636,7 +10636,7 @@
         <v>6</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -10678,7 +10678,7 @@
         <v>7</v>
       </c>
       <c r="X39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y39">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         <v>6</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -10767,7 +10767,7 @@
         <v>7</v>
       </c>
       <c r="X40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y40">
         <v>8</v>
@@ -10814,7 +10814,7 @@
         <v>10</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -10903,7 +10903,7 @@
         <v>8</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -10945,7 +10945,7 @@
         <v>8</v>
       </c>
       <c r="X42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y42">
         <v>9</v>
@@ -10992,7 +10992,7 @@
         <v>10</v>
       </c>
       <c r="J43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -11255,7 +11255,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -11303,7 +11303,7 @@
         <v>7</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB4">
         <v>7</v>
@@ -11356,7 +11356,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -11404,7 +11404,7 @@
         <v>7</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB5">
         <v>7</v>
@@ -11457,7 +11457,7 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -11558,7 +11558,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -11606,7 +11606,7 @@
         <v>7</v>
       </c>
       <c r="AA7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7">
         <v>6</v>
@@ -11659,7 +11659,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -11707,7 +11707,7 @@
         <v>8</v>
       </c>
       <c r="AA8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB8">
         <v>7</v>
@@ -11760,7 +11760,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -11808,7 +11808,7 @@
         <v>10</v>
       </c>
       <c r="AA9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -11861,7 +11861,7 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -11909,7 +11909,7 @@
         <v>7</v>
       </c>
       <c r="AA10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB10">
         <v>8</v>
@@ -11962,7 +11962,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -12010,7 +12010,7 @@
         <v>9</v>
       </c>
       <c r="AA11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -12063,7 +12063,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -12164,7 +12164,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -12212,7 +12212,7 @@
         <v>9</v>
       </c>
       <c r="AA13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>10</v>
@@ -12265,7 +12265,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -12313,7 +12313,7 @@
         <v>8</v>
       </c>
       <c r="AA14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB14">
         <v>8</v>
@@ -12366,7 +12366,7 @@
         <v>7</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -12467,7 +12467,7 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -12515,7 +12515,7 @@
         <v>9</v>
       </c>
       <c r="AA16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB16">
         <v>10</v>
@@ -12568,7 +12568,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -12669,7 +12669,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -12717,7 +12717,7 @@
         <v>7</v>
       </c>
       <c r="AA18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB18">
         <v>8</v>
@@ -12770,7 +12770,7 @@
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -12871,7 +12871,7 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -12972,7 +12972,7 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -13020,7 +13020,7 @@
         <v>7</v>
       </c>
       <c r="AA21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB21">
         <v>6</v>
@@ -13073,7 +13073,7 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -13174,7 +13174,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -13275,7 +13275,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -13323,7 +13323,7 @@
         <v>8</v>
       </c>
       <c r="AA24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB24">
         <v>10</v>
@@ -13376,7 +13376,7 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -13424,7 +13424,7 @@
         <v>9</v>
       </c>
       <c r="AA25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -13477,7 +13477,7 @@
         <v>7</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -13525,7 +13525,7 @@
         <v>8</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB26">
         <v>7</v>
@@ -13578,7 +13578,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>7</v>
@@ -13850,7 +13850,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -13898,7 +13898,7 @@
         <v>5</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB4">
         <v>8</v>
@@ -13951,7 +13951,7 @@
         <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>9</v>
@@ -13999,7 +13999,7 @@
         <v>9</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB5">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -14153,7 +14153,7 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -14201,7 +14201,7 @@
         <v>9</v>
       </c>
       <c r="AA7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB7">
         <v>8</v>
@@ -14254,7 +14254,7 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -14355,7 +14355,7 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -14456,7 +14456,7 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -14557,7 +14557,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -14658,7 +14658,7 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -14759,7 +14759,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -14860,7 +14860,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -14908,7 +14908,7 @@
         <v>10</v>
       </c>
       <c r="AA14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB14">
         <v>10</v>
@@ -14961,7 +14961,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -15009,7 +15009,7 @@
         <v>7</v>
       </c>
       <c r="AA15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB15">
         <v>8</v>
@@ -15062,7 +15062,7 @@
         <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -15163,7 +15163,7 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -15264,7 +15264,7 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -15365,7 +15365,7 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -15413,7 +15413,7 @@
         <v>10</v>
       </c>
       <c r="AA19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB19">
         <v>10</v>
@@ -15466,7 +15466,7 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -15567,7 +15567,7 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -15615,7 +15615,7 @@
         <v>9</v>
       </c>
       <c r="AA21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB21">
         <v>10</v>
@@ -15668,7 +15668,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -15769,7 +15769,7 @@
         <v>9</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -15817,7 +15817,7 @@
         <v>9</v>
       </c>
       <c r="AA23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB23">
         <v>10</v>
@@ -15870,7 +15870,7 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -15971,7 +15971,7 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -15986,7 +15986,7 @@
         <v>6</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -16072,7 +16072,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -16173,7 +16173,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>9</v>
@@ -16274,7 +16274,7 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L28">
         <v>8</v>
@@ -16375,7 +16375,7 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>10</v>
@@ -16423,7 +16423,7 @@
         <v>8</v>
       </c>
       <c r="AA29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB29">
         <v>10</v>
@@ -16476,7 +16476,7 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -16524,7 +16524,7 @@
         <v>10</v>
       </c>
       <c r="AA30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB30">
         <v>9</v>
@@ -16577,7 +16577,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -16625,7 +16625,7 @@
         <v>10</v>
       </c>
       <c r="AA31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB31">
         <v>10</v>
@@ -16678,7 +16678,7 @@
         <v>9</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>8</v>
@@ -16726,7 +16726,7 @@
         <v>10</v>
       </c>
       <c r="AA32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB32">
         <v>8</v>
@@ -16779,7 +16779,7 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -16827,7 +16827,7 @@
         <v>7</v>
       </c>
       <c r="AA33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB33">
         <v>7</v>
@@ -16880,7 +16880,7 @@
         <v>10</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
         <v>9</v>
@@ -16981,7 +16981,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>9</v>
@@ -17029,7 +17029,7 @@
         <v>7</v>
       </c>
       <c r="AA35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB35">
         <v>9</v>
@@ -17082,7 +17082,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -17183,7 +17183,7 @@
         <v>9</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -17231,7 +17231,7 @@
         <v>10</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB37">
         <v>10</v>
@@ -17284,7 +17284,7 @@
         <v>9</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <v>9</v>
@@ -17385,7 +17385,7 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -17486,7 +17486,7 @@
         <v>10</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L40">
         <v>10</v>
@@ -17534,7 +17534,7 @@
         <v>10</v>
       </c>
       <c r="AA40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB40">
         <v>10</v>
@@ -17587,7 +17587,7 @@
         <v>8</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L41">
         <v>9</v>
@@ -17635,7 +17635,7 @@
         <v>9</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB41">
         <v>8</v>
@@ -26486,7 +26486,7 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>9</v>
@@ -26522,7 +26522,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -26871,7 +26871,7 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -26907,7 +26907,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -27102,7 +27102,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -27333,7 +27333,7 @@
         <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <v>8</v>
@@ -27410,7 +27410,7 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -27487,7 +27487,7 @@
         <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -27641,7 +27641,7 @@
         <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M22">
         <v>9</v>
@@ -27718,7 +27718,7 @@
         <v>9</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -27754,7 +27754,7 @@
         <v>9</v>
       </c>
       <c r="X23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>9</v>
@@ -27795,7 +27795,7 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -27831,7 +27831,7 @@
         <v>8</v>
       </c>
       <c r="X24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y24">
         <v>9</v>
@@ -28103,7 +28103,7 @@
         <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -28139,7 +28139,7 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y28">
         <v>8</v>
@@ -28180,7 +28180,7 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M29">
         <v>8</v>
@@ -28216,7 +28216,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>8</v>
@@ -28257,7 +28257,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -28293,7 +28293,7 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>6</v>
@@ -28334,7 +28334,7 @@
         <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -28411,7 +28411,7 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -28447,7 +28447,7 @@
         <v>6</v>
       </c>
       <c r="X32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y32">
         <v>6</v>
@@ -28642,7 +28642,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -28719,7 +28719,7 @@
         <v>10</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M36">
         <v>10</v>
@@ -29181,7 +29181,7 @@
         <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M42">
         <v>7</v>
@@ -29217,7 +29217,7 @@
         <v>7</v>
       </c>
       <c r="X42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y42">
         <v>7</v>
@@ -34863,10 +34863,10 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -34911,10 +34911,10 @@
         <v>6</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC4">
         <v>7</v>
@@ -34964,10 +34964,10 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -35065,10 +35065,10 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -35116,7 +35116,7 @@
         <v>5</v>
       </c>
       <c r="AB6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC6">
         <v>5</v>
@@ -35166,10 +35166,10 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -35267,10 +35267,10 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -35368,10 +35368,10 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -35419,7 +35419,7 @@
         <v>5</v>
       </c>
       <c r="AB9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC9">
         <v>6</v>
@@ -35469,10 +35469,10 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -35517,10 +35517,10 @@
         <v>5</v>
       </c>
       <c r="AA10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC10">
         <v>7</v>
@@ -35570,10 +35570,10 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -35671,10 +35671,10 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>9</v>
@@ -35719,10 +35719,10 @@
         <v>7</v>
       </c>
       <c r="AA12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC12">
         <v>9</v>
@@ -35772,10 +35772,10 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>9</v>
@@ -35820,7 +35820,7 @@
         <v>5</v>
       </c>
       <c r="AA13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB13">
         <v>8</v>
@@ -35873,10 +35873,10 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>9</v>
@@ -35921,10 +35921,10 @@
         <v>8</v>
       </c>
       <c r="AA14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC14">
         <v>8</v>
@@ -35974,10 +35974,10 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>9</v>
@@ -36022,10 +36022,10 @@
         <v>8</v>
       </c>
       <c r="AA15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC15">
         <v>9</v>
@@ -36075,10 +36075,10 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>9</v>
@@ -36176,10 +36176,10 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -36274,7 +36274,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -36316,7 +36316,7 @@
         <v>7</v>
       </c>
       <c r="AA18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC18">
         <v>6</v>
@@ -36366,10 +36366,10 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -36467,10 +36467,10 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>9</v>
@@ -36515,7 +36515,7 @@
         <v>6</v>
       </c>
       <c r="AA20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB20">
         <v>10</v>
@@ -36568,10 +36568,10 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -36669,10 +36669,10 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -36717,7 +36717,7 @@
         <v>6</v>
       </c>
       <c r="AA22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB22">
         <v>10</v>
@@ -36770,10 +36770,10 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -36818,10 +36818,10 @@
         <v>7</v>
       </c>
       <c r="AA23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC23">
         <v>8</v>
@@ -36871,10 +36871,10 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -36972,10 +36972,10 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>9</v>
@@ -37020,10 +37020,10 @@
         <v>6</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC25">
         <v>8</v>
@@ -37073,10 +37073,10 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>8</v>
@@ -37174,10 +37174,10 @@
         <v>9</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M27">
         <v>9</v>
@@ -37222,7 +37222,7 @@
         <v>8</v>
       </c>
       <c r="AA27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB27">
         <v>10</v>
@@ -37275,10 +37275,10 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>8</v>
@@ -37376,10 +37376,10 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -37424,10 +37424,10 @@
         <v>7</v>
       </c>
       <c r="AA29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC29">
         <v>7</v>
@@ -37477,10 +37477,10 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -37528,7 +37528,7 @@
         <v>5</v>
       </c>
       <c r="AB30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC30">
         <v>7</v>
@@ -37578,10 +37578,10 @@
         <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -37626,10 +37626,10 @@
         <v>7</v>
       </c>
       <c r="AA31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC31">
         <v>6</v>
@@ -37679,10 +37679,10 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>6</v>
@@ -37730,7 +37730,7 @@
         <v>5</v>
       </c>
       <c r="AB32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC32">
         <v>5</v>
@@ -37780,10 +37780,10 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -37881,10 +37881,10 @@
         <v>6</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M34">
         <v>6</v>
@@ -37932,7 +37932,7 @@
         <v>5</v>
       </c>
       <c r="AB34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC34">
         <v>5</v>
@@ -37982,10 +37982,10 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -38083,10 +38083,10 @@
         <v>6</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>7</v>
@@ -38184,10 +38184,10 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>7</v>
@@ -38232,10 +38232,10 @@
         <v>5</v>
       </c>
       <c r="AA37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC37">
         <v>6</v>
@@ -38285,10 +38285,10 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>6</v>
@@ -38386,10 +38386,10 @@
         <v>8</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -38434,10 +38434,10 @@
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC39">
         <v>9</v>
@@ -42768,13 +42768,13 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>7</v>
@@ -42869,13 +42869,13 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -42923,7 +42923,7 @@
         <v>7</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -42970,13 +42970,13 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>7</v>
@@ -43024,7 +43024,7 @@
         <v>9</v>
       </c>
       <c r="AC6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD6">
         <v>7</v>
@@ -43071,13 +43071,13 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -43119,13 +43119,13 @@
         <v>5</v>
       </c>
       <c r="AA7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>5</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD7">
         <v>7</v>
@@ -43172,13 +43172,13 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>9</v>
@@ -43226,7 +43226,7 @@
         <v>8</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD8">
         <v>9</v>
@@ -43273,13 +43273,13 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>9</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -43374,13 +43374,13 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>7</v>
@@ -43475,13 +43475,13 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>9</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -43529,7 +43529,7 @@
         <v>9</v>
       </c>
       <c r="AC11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD11">
         <v>10</v>
@@ -43576,13 +43576,13 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>8</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>8</v>
@@ -43630,7 +43630,7 @@
         <v>8</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD12">
         <v>8</v>
@@ -43677,13 +43677,13 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>8</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>7</v>
@@ -43778,13 +43778,13 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -43832,7 +43832,7 @@
         <v>8</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD14">
         <v>10</v>
@@ -43879,13 +43879,13 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>8</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>7</v>
@@ -43980,13 +43980,13 @@
         <v>7</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>8</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>8</v>
@@ -44028,13 +44028,13 @@
         <v>7</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB16">
         <v>8</v>
       </c>
       <c r="AC16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD16">
         <v>9</v>
@@ -44081,13 +44081,13 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>9</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>7</v>
@@ -44129,13 +44129,13 @@
         <v>7</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB17">
         <v>9</v>
       </c>
       <c r="AC17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD17">
         <v>8</v>
@@ -44182,13 +44182,13 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>8</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>7</v>
@@ -44230,7 +44230,7 @@
         <v>6</v>
       </c>
       <c r="AA18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB18">
         <v>8</v>
@@ -44283,13 +44283,13 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>9</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -44331,7 +44331,7 @@
         <v>7</v>
       </c>
       <c r="AA19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB19">
         <v>9</v>
@@ -44384,13 +44384,13 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>8</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>7</v>
@@ -44432,13 +44432,13 @@
         <v>6</v>
       </c>
       <c r="AA20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB20">
         <v>8</v>
       </c>
       <c r="AC20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD20">
         <v>8</v>
@@ -44485,13 +44485,13 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>8</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -44586,13 +44586,13 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>8</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -44634,13 +44634,13 @@
         <v>7</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB22">
         <v>8</v>
       </c>
       <c r="AC22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD22">
         <v>10</v>
@@ -44687,13 +44687,13 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>7</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>7</v>
@@ -44741,7 +44741,7 @@
         <v>6</v>
       </c>
       <c r="AC23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD23">
         <v>7</v>
@@ -44788,13 +44788,13 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>7</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>7</v>
@@ -44842,7 +44842,7 @@
         <v>6</v>
       </c>
       <c r="AC24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD24">
         <v>7</v>
@@ -44889,13 +44889,13 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
         <v>8</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>10</v>
@@ -44937,13 +44937,13 @@
         <v>7</v>
       </c>
       <c r="AA25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB25">
         <v>8</v>
       </c>
       <c r="AC25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD25">
         <v>10</v>
@@ -44990,13 +44990,13 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>8</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>7</v>
@@ -45091,13 +45091,13 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>8</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>7</v>
@@ -45139,13 +45139,13 @@
         <v>6</v>
       </c>
       <c r="AA27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB27">
         <v>7</v>
       </c>
       <c r="AC27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD27">
         <v>7</v>
@@ -45192,13 +45192,13 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>7</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>7</v>
@@ -45293,13 +45293,13 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>9</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>7</v>
@@ -45341,7 +45341,7 @@
         <v>5</v>
       </c>
       <c r="AA29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29">
         <v>9</v>
@@ -45394,13 +45394,13 @@
         <v>7</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
         <v>7</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>10</v>
@@ -45442,13 +45442,13 @@
         <v>7</v>
       </c>
       <c r="AA30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB30">
         <v>6</v>
       </c>
       <c r="AC30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD30">
         <v>10</v>
@@ -45495,13 +45495,13 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L31">
         <v>7</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>7</v>
@@ -45789,13 +45789,13 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>8</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P4">
         <v>10</v>
@@ -45849,7 +45849,7 @@
         <v>8</v>
       </c>
       <c r="AG4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4">
         <v>9</v>
@@ -45902,13 +45902,13 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>8</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>8</v>
@@ -45962,7 +45962,7 @@
         <v>8</v>
       </c>
       <c r="AG5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5">
         <v>7</v>
@@ -46015,13 +46015,13 @@
         <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>9</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -46075,7 +46075,7 @@
         <v>9</v>
       </c>
       <c r="AG6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH6">
         <v>6</v>
@@ -46128,13 +46128,13 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>9</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P7">
         <v>9</v>
@@ -46182,7 +46182,7 @@
         <v>6</v>
       </c>
       <c r="AE7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7">
         <v>9</v>
@@ -46241,13 +46241,13 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>8</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -46301,7 +46301,7 @@
         <v>8</v>
       </c>
       <c r="AG8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8">
         <v>5</v>
@@ -46354,13 +46354,13 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P9">
         <v>8</v>
@@ -46408,7 +46408,7 @@
         <v>7</v>
       </c>
       <c r="AE9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9">
         <v>8</v>
@@ -46467,13 +46467,13 @@
         <v>6</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -46580,13 +46580,13 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P11">
         <v>7</v>
@@ -46693,13 +46693,13 @@
         <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>8</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P12">
         <v>9</v>
@@ -46806,13 +46806,13 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>7</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <v>7</v>
@@ -46919,13 +46919,13 @@
         <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>8</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -46979,7 +46979,7 @@
         <v>8</v>
       </c>
       <c r="AG14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH14">
         <v>7</v>
@@ -47032,13 +47032,13 @@
         <v>6</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>7</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <v>7</v>
@@ -47092,7 +47092,7 @@
         <v>7</v>
       </c>
       <c r="AG15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH15">
         <v>6</v>
@@ -47145,13 +47145,13 @@
         <v>7</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>8</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -47258,13 +47258,13 @@
         <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>8</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <v>7</v>
@@ -47371,13 +47371,13 @@
         <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>6</v>
@@ -47431,7 +47431,7 @@
         <v>8</v>
       </c>
       <c r="AG18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH18">
         <v>6</v>
@@ -47484,13 +47484,13 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>7</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>5</v>
@@ -47576,7 +47576,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -47597,13 +47597,13 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>7</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>5</v>
@@ -47657,7 +47657,7 @@
         <v>6</v>
       </c>
       <c r="AG20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AH20">
         <v>5</v>
@@ -47710,13 +47710,13 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>9</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P21">
         <v>8</v>
@@ -47764,13 +47764,13 @@
         <v>7</v>
       </c>
       <c r="AE21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF21">
         <v>8</v>
       </c>
       <c r="AG21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH21">
         <v>8</v>
@@ -47823,13 +47823,13 @@
         <v>7</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>10</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22">
         <v>8</v>
@@ -47877,7 +47877,7 @@
         <v>7</v>
       </c>
       <c r="AE22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22">
         <v>10</v>
@@ -47936,13 +47936,13 @@
         <v>7</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>7</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -47990,13 +47990,13 @@
         <v>6</v>
       </c>
       <c r="AE23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF23">
         <v>7</v>
       </c>
       <c r="AG23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH23">
         <v>7</v>
@@ -48049,13 +48049,13 @@
         <v>7</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>8</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -48103,7 +48103,7 @@
         <v>7</v>
       </c>
       <c r="AE24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF24">
         <v>8</v>
@@ -48162,13 +48162,13 @@
         <v>7</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>8</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P25">
         <v>9</v>
@@ -48216,7 +48216,7 @@
         <v>7</v>
       </c>
       <c r="AE25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25">
         <v>8</v>
@@ -48275,13 +48275,13 @@
         <v>6</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>7</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P26">
         <v>9</v>
@@ -48329,7 +48329,7 @@
         <v>7</v>
       </c>
       <c r="AE26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26">
         <v>7</v>
@@ -48553,7 +48553,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -48654,7 +48654,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -48755,7 +48755,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -48856,7 +48856,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -48957,7 +48957,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>9</v>
@@ -49005,7 +49005,7 @@
         <v>6</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB8">
         <v>9</v>
@@ -49058,7 +49058,7 @@
         <v>8</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -49106,7 +49106,7 @@
         <v>7</v>
       </c>
       <c r="AA9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -49153,7 +49153,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -49248,7 +49248,7 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -49296,7 +49296,7 @@
         <v>7</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB11">
         <v>7</v>
@@ -49349,7 +49349,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -49450,7 +49450,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -49498,7 +49498,7 @@
         <v>7</v>
       </c>
       <c r="AA13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB13">
         <v>7</v>
@@ -49551,7 +49551,7 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -49652,7 +49652,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -49753,7 +49753,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L16">
         <v>9</v>
@@ -49854,7 +49854,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -49955,7 +49955,7 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -50003,7 +50003,7 @@
         <v>8</v>
       </c>
       <c r="AA18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB18">
         <v>10</v>
@@ -50056,7 +50056,7 @@
         <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -50104,7 +50104,7 @@
         <v>8</v>
       </c>
       <c r="AA19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB19">
         <v>10</v>
@@ -50157,7 +50157,7 @@
         <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>9</v>
@@ -50258,7 +50258,7 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -50306,7 +50306,7 @@
         <v>8</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB21">
         <v>10</v>
@@ -50359,7 +50359,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -50407,7 +50407,7 @@
         <v>5</v>
       </c>
       <c r="AA22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB22">
         <v>5</v>
@@ -50460,7 +50460,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <v>7</v>
@@ -50508,7 +50508,7 @@
         <v>5</v>
       </c>
       <c r="AA23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB23">
         <v>7</v>
@@ -50561,7 +50561,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>9</v>
@@ -50609,7 +50609,7 @@
         <v>6</v>
       </c>
       <c r="AA24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB24">
         <v>9</v>
@@ -50662,7 +50662,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>9</v>
@@ -50763,7 +50763,7 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>8</v>
@@ -50811,7 +50811,7 @@
         <v>5</v>
       </c>
       <c r="AA26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB26">
         <v>8</v>
@@ -50864,7 +50864,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>9</v>
@@ -50912,7 +50912,7 @@
         <v>7</v>
       </c>
       <c r="AA27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB27">
         <v>9</v>
@@ -50965,7 +50965,7 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -51013,7 +51013,7 @@
         <v>6</v>
       </c>
       <c r="AA28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB28">
         <v>10</v>
@@ -51066,7 +51066,7 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>8</v>
@@ -51114,7 +51114,7 @@
         <v>6</v>
       </c>
       <c r="AA29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB29">
         <v>8</v>
@@ -51167,7 +51167,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>6</v>
@@ -51268,7 +51268,7 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -51369,7 +51369,7 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>9</v>
@@ -51470,7 +51470,7 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -51518,7 +51518,7 @@
         <v>7</v>
       </c>
       <c r="AA33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB33">
         <v>9</v>
@@ -51742,7 +51742,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -51843,7 +51843,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>9</v>
@@ -51944,7 +51944,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -52045,7 +52045,7 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>9</v>
@@ -52146,7 +52146,7 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -52194,7 +52194,7 @@
         <v>8</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB8">
         <v>10</v>
@@ -52247,7 +52247,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -52348,7 +52348,7 @@
         <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -52449,7 +52449,7 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -52497,7 +52497,7 @@
         <v>7</v>
       </c>
       <c r="AA11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB11">
         <v>9</v>
@@ -52550,7 +52550,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -52651,7 +52651,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -52752,7 +52752,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -59085,7 +59085,7 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -59135,7 +59135,7 @@
         <v>8</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -59177,7 +59177,7 @@
         <v>8</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -59224,7 +59224,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -59266,7 +59266,7 @@
         <v>7</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -59313,7 +59313,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -59402,7 +59402,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -59444,7 +59444,7 @@
         <v>7</v>
       </c>
       <c r="Y8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z8">
         <v>8</v>
@@ -59491,7 +59491,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -59580,7 +59580,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -59622,7 +59622,7 @@
         <v>8</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z10">
         <v>10</v>
@@ -59669,7 +59669,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -59758,7 +59758,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -59847,7 +59847,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -59936,7 +59936,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>9</v>
@@ -60025,7 +60025,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -60114,7 +60114,7 @@
         <v>7</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -60203,7 +60203,7 @@
         <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -60292,7 +60292,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -60334,7 +60334,7 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z18">
         <v>9</v>
@@ -60518,7 +60518,7 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -60530,7 +60530,7 @@
         <v>9</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -60562,7 +60562,7 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -60604,7 +60604,7 @@
         <v>7</v>
       </c>
       <c r="X5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <v>9</v>
@@ -60651,7 +60651,7 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -60693,7 +60693,7 @@
         <v>9</v>
       </c>
       <c r="X6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -60740,7 +60740,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -60829,7 +60829,7 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -60871,7 +60871,7 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y8">
         <v>9</v>
@@ -60918,7 +60918,7 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -60960,7 +60960,7 @@
         <v>8</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -61007,7 +61007,7 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -61049,7 +61049,7 @@
         <v>7</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y10">
         <v>9</v>
@@ -61096,7 +61096,7 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -61185,7 +61185,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -61227,7 +61227,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -61274,7 +61274,7 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -61363,7 +61363,7 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -61405,7 +61405,7 @@
         <v>10</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -69326,7 +69326,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -69403,7 +69403,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -69439,7 +69439,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>10</v>
@@ -69480,7 +69480,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -69516,7 +69516,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>9</v>
@@ -69557,7 +69557,7 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -69593,7 +69593,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U7">
         <v>10</v>
@@ -69634,7 +69634,7 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -69670,7 +69670,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>9</v>
@@ -69711,7 +69711,7 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -69747,7 +69747,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -69788,7 +69788,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -69824,7 +69824,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10">
         <v>10</v>
@@ -69865,7 +69865,7 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -69901,7 +69901,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <v>10</v>
@@ -69942,7 +69942,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -70019,7 +70019,7 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -70055,7 +70055,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13">
         <v>10</v>
@@ -70096,7 +70096,7 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -70173,7 +70173,7 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -70209,7 +70209,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>10</v>
@@ -70250,7 +70250,7 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -70286,7 +70286,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>10</v>
@@ -70327,7 +70327,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>9</v>
@@ -70363,7 +70363,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -70404,7 +70404,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -70481,7 +70481,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -70558,7 +70558,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -70594,7 +70594,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -70774,7 +70774,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -70851,7 +70851,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -70887,7 +70887,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>9</v>
@@ -70928,7 +70928,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -71005,7 +71005,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -71082,7 +71082,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -71118,7 +71118,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U8">
         <v>8</v>
@@ -71159,7 +71159,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -71195,7 +71195,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -71236,7 +71236,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -71313,7 +71313,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -71349,7 +71349,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11">
         <v>7</v>
@@ -71390,7 +71390,7 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -71426,7 +71426,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -71467,7 +71467,7 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -71503,7 +71503,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>6</v>
@@ -71544,7 +71544,7 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -71580,7 +71580,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>9</v>
@@ -71621,7 +71621,7 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -71698,7 +71698,7 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>9</v>
@@ -71734,7 +71734,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>10</v>
@@ -71775,7 +71775,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -71811,7 +71811,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -71852,7 +71852,7 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -71888,7 +71888,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>8</v>
@@ -71929,7 +71929,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>9</v>
@@ -71965,7 +71965,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19">
         <v>10</v>
@@ -72006,7 +72006,7 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -72042,7 +72042,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U20">
         <v>7</v>
@@ -72083,7 +72083,7 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -72119,7 +72119,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U21">
         <v>7</v>
@@ -72160,7 +72160,7 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -72196,7 +72196,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>10</v>
@@ -72237,7 +72237,7 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>9</v>
@@ -72273,7 +72273,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U23">
         <v>9</v>
@@ -72314,7 +72314,7 @@
         <v>7</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -72391,7 +72391,7 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -72427,7 +72427,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U25">
         <v>10</v>
@@ -72468,7 +72468,7 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -72504,7 +72504,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>10</v>
@@ -72533,7 +72533,7 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I27">
         <v>8</v>
@@ -72574,7 +72574,7 @@
         <v>7</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>7</v>
@@ -72610,7 +72610,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U28">
         <v>6</v>
@@ -72790,7 +72790,7 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -72826,7 +72826,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -72867,7 +72867,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -72903,7 +72903,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5">
         <v>10</v>
@@ -72944,7 +72944,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -72980,7 +72980,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>10</v>
@@ -73021,7 +73021,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -73098,7 +73098,7 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -73134,7 +73134,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>10</v>
@@ -73175,7 +73175,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -73211,7 +73211,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -73252,7 +73252,7 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -73288,7 +73288,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U10">
         <v>9</v>
@@ -73329,7 +73329,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -73406,7 +73406,7 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -73442,7 +73442,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -73483,7 +73483,7 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -73519,7 +73519,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13">
         <v>10</v>
@@ -73560,7 +73560,7 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -73596,7 +73596,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>10</v>
@@ -73637,7 +73637,7 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -73673,7 +73673,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -73714,7 +73714,7 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>9</v>
@@ -73750,7 +73750,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -73791,7 +73791,7 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -73827,7 +73827,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U17">
         <v>10</v>
@@ -73868,7 +73868,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -73904,7 +73904,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U18">
         <v>10</v>
@@ -73945,7 +73945,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -73981,7 +73981,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19">
         <v>10</v>
@@ -74022,7 +74022,7 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -74058,7 +74058,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -74099,7 +74099,7 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -74135,7 +74135,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U21">
         <v>10</v>
@@ -74176,7 +74176,7 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -74212,7 +74212,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U22">
         <v>10</v>
@@ -74253,7 +74253,7 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -74289,7 +74289,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U23">
         <v>8</v>
@@ -74330,7 +74330,7 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>10</v>
@@ -74366,7 +74366,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U24">
         <v>10</v>
@@ -74407,7 +74407,7 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -74443,7 +74443,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U25">
         <v>10</v>
@@ -74484,7 +74484,7 @@
         <v>7</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>8</v>
@@ -74520,7 +74520,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>7</v>
@@ -74561,7 +74561,7 @@
         <v>6</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I27">
         <v>8</v>
@@ -74597,7 +74597,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U27">
         <v>7</v>
@@ -74638,7 +74638,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -88134,7 +88134,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>8</v>
@@ -88149,7 +88149,7 @@
         <v>7</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -88182,7 +88182,7 @@
         <v>9</v>
       </c>
       <c r="AA4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB4">
         <v>9</v>
@@ -88235,7 +88235,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -88250,7 +88250,7 @@
         <v>8</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -88283,7 +88283,7 @@
         <v>8</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB5">
         <v>10</v>
@@ -88298,7 +88298,7 @@
         <v>8</v>
       </c>
       <c r="AF5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG5">
         <v>9</v>
@@ -88336,7 +88336,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -88351,7 +88351,7 @@
         <v>8</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -88384,7 +88384,7 @@
         <v>8</v>
       </c>
       <c r="AA6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB6">
         <v>8</v>
@@ -88437,7 +88437,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -88452,7 +88452,7 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -88485,7 +88485,7 @@
         <v>8</v>
       </c>
       <c r="AA7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>8</v>
@@ -88538,7 +88538,7 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -88553,7 +88553,7 @@
         <v>10</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -88639,7 +88639,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -88654,7 +88654,7 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -88687,7 +88687,7 @@
         <v>7</v>
       </c>
       <c r="AA9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB9">
         <v>6</v>
@@ -88702,7 +88702,7 @@
         <v>6</v>
       </c>
       <c r="AF9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9">
         <v>6</v>
@@ -88740,7 +88740,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -88755,7 +88755,7 @@
         <v>7</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -88788,7 +88788,7 @@
         <v>8</v>
       </c>
       <c r="AA10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB10">
         <v>8</v>
@@ -88841,7 +88841,7 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -88856,7 +88856,7 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -88904,7 +88904,7 @@
         <v>8</v>
       </c>
       <c r="AF11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11">
         <v>8</v>
@@ -88942,7 +88942,7 @@
         <v>9</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -88957,7 +88957,7 @@
         <v>8</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -88990,7 +88990,7 @@
         <v>9</v>
       </c>
       <c r="AA12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB12">
         <v>8</v>
@@ -89043,7 +89043,7 @@
         <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -89058,7 +89058,7 @@
         <v>7</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -89091,7 +89091,7 @@
         <v>9</v>
       </c>
       <c r="AA13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>9</v>
@@ -89144,7 +89144,7 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -89159,7 +89159,7 @@
         <v>10</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -89245,7 +89245,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -89260,7 +89260,7 @@
         <v>7</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -89293,7 +89293,7 @@
         <v>9</v>
       </c>
       <c r="AA15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB15">
         <v>8</v>
@@ -89346,7 +89346,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -89361,7 +89361,7 @@
         <v>8</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -89394,7 +89394,7 @@
         <v>7</v>
       </c>
       <c r="AA16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB16">
         <v>7</v>
@@ -89447,7 +89447,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -89462,7 +89462,7 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -89548,7 +89548,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -89563,7 +89563,7 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -89649,7 +89649,7 @@
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -89664,7 +89664,7 @@
         <v>8</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -89750,7 +89750,7 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>7</v>
@@ -89765,7 +89765,7 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -89813,7 +89813,7 @@
         <v>5</v>
       </c>
       <c r="AF20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG20">
         <v>8</v>
@@ -89851,7 +89851,7 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -89866,7 +89866,7 @@
         <v>7</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -89899,7 +89899,7 @@
         <v>7</v>
       </c>
       <c r="AA21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB21">
         <v>8</v>
@@ -89914,7 +89914,7 @@
         <v>8</v>
       </c>
       <c r="AF21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG21">
         <v>10</v>
@@ -89952,7 +89952,7 @@
         <v>9</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -89967,7 +89967,7 @@
         <v>8</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -90053,7 +90053,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -90068,7 +90068,7 @@
         <v>7</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -90154,7 +90154,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -90169,7 +90169,7 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -90202,7 +90202,7 @@
         <v>5</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB24">
         <v>5</v>
@@ -90255,7 +90255,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -90270,7 +90270,7 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -90303,7 +90303,7 @@
         <v>8</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25">
         <v>7</v>
@@ -90356,7 +90356,7 @@
         <v>8</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>7</v>
@@ -90371,7 +90371,7 @@
         <v>7</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -90457,7 +90457,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -90472,7 +90472,7 @@
         <v>7</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -90729,7 +90729,7 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -90830,7 +90830,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -90931,7 +90931,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -90979,7 +90979,7 @@
         <v>9</v>
       </c>
       <c r="AA6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB6">
         <v>9</v>
@@ -91032,7 +91032,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -91133,7 +91133,7 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -91234,7 +91234,7 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -91282,7 +91282,7 @@
         <v>9</v>
       </c>
       <c r="AA9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -91335,7 +91335,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -91383,7 +91383,7 @@
         <v>9</v>
       </c>
       <c r="AA10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB10">
         <v>10</v>
@@ -91436,7 +91436,7 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -91484,7 +91484,7 @@
         <v>10</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -91537,7 +91537,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -91585,7 +91585,7 @@
         <v>8</v>
       </c>
       <c r="AA12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB12">
         <v>8</v>
@@ -91638,7 +91638,7 @@
         <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -91686,7 +91686,7 @@
         <v>9</v>
       </c>
       <c r="AA13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>8</v>
@@ -91739,7 +91739,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -91840,7 +91840,7 @@
         <v>7</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -91888,7 +91888,7 @@
         <v>8</v>
       </c>
       <c r="AA15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB15">
         <v>10</v>
@@ -91941,7 +91941,7 @@
         <v>8</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -91989,7 +91989,7 @@
         <v>9</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB16">
         <v>9</v>
@@ -92042,7 +92042,7 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>7</v>
@@ -92090,7 +92090,7 @@
         <v>8</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB17">
         <v>9</v>
@@ -92143,7 +92143,7 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -92191,7 +92191,7 @@
         <v>9</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB18">
         <v>9</v>
@@ -92244,7 +92244,7 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -92345,7 +92345,7 @@
         <v>7</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -92393,7 +92393,7 @@
         <v>8</v>
       </c>
       <c r="AA20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB20">
         <v>9</v>
@@ -92446,7 +92446,7 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -92547,7 +92547,7 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -92595,7 +92595,7 @@
         <v>10</v>
       </c>
       <c r="AA22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB22">
         <v>10</v>
@@ -92648,7 +92648,7 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -92696,7 +92696,7 @@
         <v>8</v>
       </c>
       <c r="AA23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB23">
         <v>9</v>
@@ -92749,7 +92749,7 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -92797,7 +92797,7 @@
         <v>8</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB24">
         <v>9</v>
@@ -92850,7 +92850,7 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -92898,7 +92898,7 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -92951,7 +92951,7 @@
         <v>7</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -92999,7 +92999,7 @@
         <v>8</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB26">
         <v>6</v>
@@ -93052,7 +93052,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -93153,7 +93153,7 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -93201,7 +93201,7 @@
         <v>8</v>
       </c>
       <c r="AA28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB28">
         <v>10</v>
@@ -93254,7 +93254,7 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -93355,7 +93355,7 @@
         <v>9</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -93403,7 +93403,7 @@
         <v>9</v>
       </c>
       <c r="AA30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB30">
         <v>8</v>
@@ -93456,7 +93456,7 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -93557,7 +93557,7 @@
         <v>7</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -93605,7 +93605,7 @@
         <v>8</v>
       </c>
       <c r="AA32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB32">
         <v>8</v>
@@ -93658,7 +93658,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -93759,7 +93759,7 @@
         <v>6</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>7</v>
@@ -93860,7 +93860,7 @@
         <v>7</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -93961,7 +93961,7 @@
         <v>8</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
         <v>10</v>
@@ -94009,7 +94009,7 @@
         <v>9</v>
       </c>
       <c r="AA36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB36">
         <v>10</v>
@@ -94062,7 +94062,7 @@
         <v>7</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L37">
         <v>10</v>
@@ -94110,7 +94110,7 @@
         <v>8</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB37">
         <v>10</v>
@@ -94315,7 +94315,7 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -94357,7 +94357,7 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -94404,7 +94404,7 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -94493,7 +94493,7 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -94582,7 +94582,7 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -94624,7 +94624,7 @@
         <v>10</v>
       </c>
       <c r="X7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7">
         <v>8</v>
@@ -94671,7 +94671,7 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -94760,7 +94760,7 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -94849,7 +94849,7 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -94891,7 +94891,7 @@
         <v>9</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10">
         <v>7</v>
@@ -94938,7 +94938,7 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -94980,7 +94980,7 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -95027,7 +95027,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -95069,7 +95069,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -95116,7 +95116,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -95158,7 +95158,7 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y13">
         <v>8</v>
@@ -95205,7 +95205,7 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -95247,7 +95247,7 @@
         <v>7</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y14">
         <v>7</v>
@@ -95294,7 +95294,7 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -95383,7 +95383,7 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -95425,7 +95425,7 @@
         <v>9</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y16">
         <v>8</v>
@@ -95472,7 +95472,7 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -95514,7 +95514,7 @@
         <v>8</v>
       </c>
       <c r="X17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>7</v>
@@ -95561,7 +95561,7 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -95650,7 +95650,7 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -95739,7 +95739,7 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -95828,7 +95828,7 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -95870,7 +95870,7 @@
         <v>8</v>
       </c>
       <c r="X21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y21">
         <v>7</v>
@@ -95917,7 +95917,7 @@
         <v>8</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -95959,7 +95959,7 @@
         <v>9</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y22">
         <v>7</v>
@@ -96006,7 +96006,7 @@
         <v>7</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -96048,7 +96048,7 @@
         <v>8</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y23">
         <v>8</v>
@@ -96095,7 +96095,7 @@
         <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -96184,7 +96184,7 @@
         <v>7</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -96226,7 +96226,7 @@
         <v>9</v>
       </c>
       <c r="X25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y25">
         <v>8</v>
@@ -96273,7 +96273,7 @@
         <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -96315,7 +96315,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y26">
         <v>8</v>
@@ -96362,7 +96362,7 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -96404,7 +96404,7 @@
         <v>9</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>8</v>
@@ -96451,7 +96451,7 @@
         <v>7</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -96540,7 +96540,7 @@
         <v>9</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -96629,7 +96629,7 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -96718,7 +96718,7 @@
         <v>9</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -96760,7 +96760,7 @@
         <v>9</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -96807,7 +96807,7 @@
         <v>8</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -96896,7 +96896,7 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -96938,7 +96938,7 @@
         <v>7</v>
       </c>
       <c r="X33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y33">
         <v>6</v>
@@ -96985,7 +96985,7 @@
         <v>8</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>6</v>

--- a/Calificaciones20242.xlsx
+++ b/Calificaciones20242.xlsx
@@ -3018,7 +3018,7 @@
     <t>SILVESTRE OLIVARES MICHELLE</t>
   </si>
   <si>
-    <t>TRUJILLO ------ AMERICA</t>
+    <t>TRUJILLO  AMERICA</t>
   </si>
   <si>
     <t>VAZQUEZ MERLIN ANDREA JANETH</t>
